--- a/WindowsFormsApplication1/Resources/AttendanceDaily.xlsx
+++ b/WindowsFormsApplication1/Resources/AttendanceDaily.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CompanyProjects\HRProject\WindowsFormsApplication1\WindowsFormsApplication1\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CompanyProjects\HRProject\NewTechLinkHRmanagement\WindowsFormsApplication1\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30FE5DC-888F-461A-BDB4-1F2ED40B4BD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D515A6A5-30FA-4327-9338-EFFCCC8FD372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{AE53953A-669E-4817-9D40-E5AB8C4B8208}"/>
+    <workbookView xWindow="22932" yWindow="-168" windowWidth="23256" windowHeight="12576" xr2:uid="{AE53953A-669E-4817-9D40-E5AB8C4B8208}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1065,10 +1065,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C772928-289B-4114-8BB8-A8C9462FDD5A}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D114" sqref="D114"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3185,7 +3185,7 @@
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
       <c r="J70" s="14">
-        <f t="shared" ref="J70:J96" si="3">K70+P70+Q70</f>
+        <f t="shared" ref="J70:J98" si="3">K70+P70+Q70</f>
         <v>0</v>
       </c>
       <c r="K70" s="21"/>
@@ -3940,118 +3940,172 @@
       <c r="S95" s="16"/>
     </row>
     <row r="96" spans="1:19" ht="27" customHeight="1">
-      <c r="A96" s="56" t="s">
+      <c r="A96" s="30"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="19"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="14">
+        <v>0</v>
+      </c>
+      <c r="K96" s="14"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16"/>
+      <c r="N96" s="14">
+        <v>0</v>
+      </c>
+      <c r="O96" s="14">
+        <v>0</v>
+      </c>
+      <c r="P96" s="16"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="16"/>
+      <c r="S96" s="16"/>
+    </row>
+    <row r="97" spans="1:19" ht="27" customHeight="1">
+      <c r="A97" s="30"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="19"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="14">
+        <v>0</v>
+      </c>
+      <c r="K97" s="14"/>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="14">
+        <v>0</v>
+      </c>
+      <c r="O97" s="14">
+        <v>0</v>
+      </c>
+      <c r="P97" s="16"/>
+      <c r="Q97" s="13"/>
+      <c r="R97" s="16"/>
+      <c r="S97" s="16"/>
+    </row>
+    <row r="98" spans="1:19" ht="27" customHeight="1">
+      <c r="A98" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B96" s="57"/>
-      <c r="C96" s="57"/>
-      <c r="D96" s="58"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="7">
+      <c r="B98" s="57"/>
+      <c r="C98" s="57"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="6"/>
+      <c r="I98" s="6"/>
+      <c r="J98" s="7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K96" s="7">
-        <f>N96+O96</f>
-        <v>0</v>
-      </c>
-      <c r="L96" s="7">
-        <f>SUM(L5:L95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="M96" s="7">
-        <f>SUM(M5:M95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="N96" s="7">
-        <f>SUM(N5:N95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="O96" s="7">
-        <f>SUM(O5:O95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="P96" s="7">
-        <f>SUM(P5:P95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="Q96" s="7">
-        <f>SUM(Q5:Q95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="R96" s="7">
-        <f>SUM(R5:R95)/2</f>
-        <v>0</v>
-      </c>
-      <c r="S96" s="7">
-        <f>SUM(S5:S95)/2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" ht="27" customHeight="1" thickBot="1">
-      <c r="A97" s="59" t="s">
+      <c r="K98" s="7">
+        <f>N98+O98</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="7">
+        <f>SUM(L5:L97)/2</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="7">
+        <f>SUM(M5:M97)/2</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="7">
+        <f>SUM(N5:N97)/2</f>
+        <v>0</v>
+      </c>
+      <c r="O98" s="7">
+        <f>SUM(O5:O97)/2</f>
+        <v>0</v>
+      </c>
+      <c r="P98" s="7">
+        <f>SUM(P5:P97)/2</f>
+        <v>0</v>
+      </c>
+      <c r="Q98" s="7">
+        <f>SUM(Q5:Q97)/2</f>
+        <v>0</v>
+      </c>
+      <c r="R98" s="7">
+        <f>SUM(R5:R97)/2</f>
+        <v>0</v>
+      </c>
+      <c r="S98" s="7">
+        <f>SUM(S5:S97)/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" ht="30" customHeight="1" thickBot="1">
+      <c r="A99" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B97" s="60"/>
-      <c r="C97" s="60"/>
-      <c r="D97" s="60"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="6"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="6"/>
-      <c r="I97" s="6"/>
-      <c r="J97" s="32" t="e">
-        <f>(M96+S96)/J96</f>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="6"/>
+      <c r="I99" s="6"/>
+      <c r="J99" s="32" t="e">
+        <f>(M98+S98)/J98</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K97" s="9"/>
-      <c r="L97" s="1"/>
-      <c r="M97" s="1"/>
-      <c r="N97" s="61" t="s">
+      <c r="K99" s="9"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="O97" s="62"/>
-      <c r="P97" s="63"/>
-      <c r="Q97" s="9"/>
-      <c r="R97" s="1"/>
-      <c r="S97" s="10"/>
-    </row>
-    <row r="98" spans="1:19" ht="30" customHeight="1" thickTop="1">
-      <c r="A98" s="54" t="s">
+      <c r="O99" s="62"/>
+      <c r="P99" s="63"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="10"/>
+    </row>
+    <row r="100" spans="1:19" ht="16.2" thickTop="1">
+      <c r="A100" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="B98" s="55"/>
-      <c r="C98" s="55"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="55"/>
-      <c r="K98" s="55"/>
-      <c r="L98" s="55"/>
-      <c r="M98" s="55"/>
-      <c r="N98" s="55"/>
-      <c r="O98" s="55"/>
-      <c r="P98" s="55"/>
-      <c r="Q98" s="55"/>
-      <c r="R98" s="55"/>
-      <c r="S98" s="55"/>
-    </row>
-    <row r="101" spans="1:19">
-      <c r="J101" s="11"/>
+      <c r="B100" s="55"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="55"/>
+      <c r="Q100" s="55"/>
+      <c r="R100" s="55"/>
+      <c r="S100" s="55"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="J103" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A98:S98"/>
-    <mergeCell ref="A96:D96"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="N97:P97"/>
+    <mergeCell ref="A100:S100"/>
+    <mergeCell ref="A98:D98"/>
+    <mergeCell ref="A99:D99"/>
+    <mergeCell ref="N99:P99"/>
     <mergeCell ref="Q3:S3"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:M2"/>
